--- a/r_input/yakit_tuketimi.xlsx
+++ b/r_input/yakit_tuketimi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10C043A-92CC-48C5-A3D6-42C1CA2F4CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ED65CA-BAFB-4076-85D4-4982A558BB86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4B7932B-F758-48EB-A246-B075D9298CFF}"/>
   </bookViews>
@@ -32,8 +32,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={64080FCD-3377-4D5B-B06C-C60BB62CD9B0}</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{64080FCD-3377-4D5B-B06C-C60BB62CD9B0}">
+      <text>
+        <t>[Yorum yazışması]
+Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
+Açıklama:
+    https://www.sozcu.com.tr/2020/ekonomi/benzinde-vergi-orani-yuzde-70e-dayandi-5683960/</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>degisken</t>
   </si>
@@ -47,14 +65,20 @@
     <t>dizel_litre_otv</t>
   </si>
   <si>
-    <t>arac_km_omru</t>
+    <t>benzin_litre_kdv</t>
+  </si>
+  <si>
+    <t>dizel_litre_kdv</t>
+  </si>
+  <si>
+    <t>arac_yillik_km</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +103,13 @@
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,6 +151,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Murat Senzeybek" id="{DACD1B62-71B9-430A-AAD0-D84A9BC6356D}" userId="ae0a8af07983ee80" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,15 +454,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B2" dT="2020-09-26T12:26:22.53" personId="{DACD1B62-71B9-430A-AAD0-D84A9BC6356D}" id="{64080FCD-3377-4D5B-B06C-C60BB62CD9B0}">
+    <text>https://www.sozcu.com.tr/2020/ekonomi/benzinde-vergi-orani-yuzde-70e-dayandi-5683960/</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242A8E91-1A39-44A6-B6C6-2717B8BA00EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242A8E91-1A39-44A6-B6C6-2717B8BA00EF}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>2.5</v>
+        <v>2.5265</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -454,19 +499,36 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>2.0558999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>200000</v>
+      <c r="B5" s="2">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/r_input/yakit_tuketimi.xlsx
+++ b/r_input/yakit_tuketimi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ED65CA-BAFB-4076-85D4-4982A558BB86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46851380-7AE1-4F72-8559-99946F049075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4B7932B-F758-48EB-A246-B075D9298CFF}"/>
   </bookViews>
@@ -36,6 +36,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={64080FCD-3377-4D5B-B06C-C60BB62CD9B0}</author>
+    <author>tc={34F451A4-5E46-421A-A6C5-6A1E7539F01C}</author>
   </authors>
   <commentList>
     <comment ref="B2" authorId="0" shapeId="0" xr:uid="{64080FCD-3377-4D5B-B06C-C60BB62CD9B0}">
@@ -46,6 +47,14 @@
     https://www.sozcu.com.tr/2020/ekonomi/benzinde-vergi-orani-yuzde-70e-dayandi-5683960/</t>
       </text>
     </comment>
+    <comment ref="B4" authorId="1" shapeId="0" xr:uid="{34F451A4-5E46-421A-A6C5-6A1E7539F01C}">
+      <text>
+        <t>[Yorum yazışması]
+Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
+Açıklama:
+    http://tuik.gov.tr/HbPrint.do?id=33627</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -71,7 +80,7 @@
     <t>dizel_litre_kdv</t>
   </si>
   <si>
-    <t>arac_yillik_km</t>
+    <t>binek_arac_yillik_km</t>
   </si>
 </sst>
 </file>
@@ -108,8 +117,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="162"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -459,6 +467,9 @@
   <threadedComment ref="B2" dT="2020-09-26T12:26:22.53" personId="{DACD1B62-71B9-430A-AAD0-D84A9BC6356D}" id="{64080FCD-3377-4D5B-B06C-C60BB62CD9B0}">
     <text>https://www.sozcu.com.tr/2020/ekonomi/benzinde-vergi-orani-yuzde-70e-dayandi-5683960/</text>
   </threadedComment>
+  <threadedComment ref="B4" dT="2020-10-03T08:29:50.72" personId="{DACD1B62-71B9-430A-AAD0-D84A9BC6356D}" id="{34F451A4-5E46-421A-A6C5-6A1E7539F01C}">
+    <text>http://tuik.gov.tr/HbPrint.do?id=33627</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -470,7 +481,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +518,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>15000</v>
+        <v>14674</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">

--- a/r_input/yakit_tuketimi.xlsx
+++ b/r_input/yakit_tuketimi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46851380-7AE1-4F72-8559-99946F049075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD36A293-3C0C-442A-B1FB-68C76CB62F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4B7932B-F758-48EB-A246-B075D9298CFF}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>degisken</t>
   </si>
@@ -81,12 +81,25 @@
   </si>
   <si>
     <t>binek_arac_yillik_km</t>
+  </si>
+  <si>
+    <t>ortalama_yillik_km</t>
+  </si>
+  <si>
+    <t>LCV_yillik_km</t>
+  </si>
+  <si>
+    <t>HDV_yillik_km</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,10 +127,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,16 +152,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Virgül" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -478,15 +497,16 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -501,7 +521,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>2.5265</v>
       </c>
     </row>
@@ -509,15 +529,15 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>2.0558999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
         <v>14674</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>0.71</v>
       </c>
     </row>
@@ -533,8 +553,34 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>0.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>13107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <f>(13201+63360)*1000000/(487527+3755580)</f>
+        <v>18043.617566090132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <f>(10670+36178)*1000000/(218523+845462)</f>
+        <v>44030.695921465056</v>
       </c>
     </row>
   </sheetData>
